--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>姓名</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>数学/物理/化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓妮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -610,6 +622,56 @@
       <c r="G5" s="6">
         <v>18621788095</v>
       </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6">
+        <v>18872148745</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6">
+        <v>15995218243</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>18807260781</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6">
+        <v>15172957077</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>姓名</t>
   </si>
@@ -102,6 +102,26 @@
   </si>
   <si>
     <t>李晓妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -672,6 +692,53 @@
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6">
+        <v>18872810657</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>15071863980</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6">
+        <v>18071928889</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>姓名</t>
   </si>
@@ -122,6 +122,22 @@
   </si>
   <si>
     <t>刘老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田彩荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -739,6 +755,35 @@
       </c>
       <c r="H9" s="6"/>
       <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6">
+        <v>17771667290</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6">
+        <v>13997779132</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学/物理/化学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牟森</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,11 +125,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>林老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级（理科）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,12 +521,12 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="5" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6">
         <v>18871821756</v>
@@ -634,6 +634,12 @@
       </c>
       <c r="G4" s="6">
         <v>13958684076</v>
+      </c>
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="J4">
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -661,7 +667,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -670,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6">
         <v>18872148745</v>
@@ -686,7 +692,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -695,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6">
         <v>18807260781</v>
@@ -711,7 +717,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -720,7 +726,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>18872810657</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -733,22 +742,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6">
         <v>15071863980</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="6">
         <v>18071928889</v>
@@ -758,13 +767,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>
@@ -773,7 +782,7 @@
         <v>17771667290</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="6">
         <v>13997779132</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级（理科）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +517,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -773,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>姓名</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>高一（理科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -517,7 +527,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -747,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6">
         <v>15071863980</v>
@@ -758,8 +768,12 @@
       <c r="G9" s="6">
         <v>18071928889</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="7">
+        <v>900</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1800</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>姓名</t>
   </si>
@@ -98,14 +98,6 @@
   </si>
   <si>
     <t>李晓妮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘朗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -630,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6">
         <v>18871821756</v>
@@ -729,78 +721,53 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15071863980</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="6">
-        <v>18872810657</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="6">
-        <v>18872810657</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>18071928889</v>
+      </c>
+      <c r="H8" s="7">
+        <v>900</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1800</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E9" s="6">
-        <v>15071863980</v>
+        <v>17771667290</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="6">
-        <v>18071928889</v>
-      </c>
-      <c r="H9" s="7">
-        <v>900</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6">
-        <v>17771667290</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="6">
         <v>13997779132</v>
       </c>
-      <c r="H10">
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="J10">
+      <c r="J9">
         <v>2000</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -661,6 +661,12 @@
       </c>
       <c r="G5" s="6">
         <v>18621788095</v>
+      </c>
+      <c r="H5">
+        <v>800</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -634,7 +634,7 @@
         <v>13958684076</v>
       </c>
       <c r="H4">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="J4">
         <v>1800</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -666,7 +666,7 @@
         <v>800</v>
       </c>
       <c r="J5">
-        <v>1000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -691,8 +691,12 @@
       <c r="G6" s="6">
         <v>15995218243</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="7">
+        <v>400</v>
+      </c>
+      <c r="J6" s="7">
+        <v>900</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/化学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +523,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -572,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <v>15272242064</v>
@@ -583,8 +587,12 @@
       <c r="G2" s="6">
         <v>13477256849</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="H2" s="7">
+        <v>900</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1800</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -597,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6">
         <v>13972409178</v>
@@ -608,8 +616,12 @@
       <c r="G3" s="6">
         <v>13972409178</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1800</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -617,7 +617,7 @@
         <v>13972409178</v>
       </c>
       <c r="H3" s="7">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="J3" s="7">
         <v>1800</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>姓名</t>
   </si>
@@ -94,10 +94,6 @@
   </si>
   <si>
     <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李晓妮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -576,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6">
         <v>15272242064</v>
@@ -605,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6">
         <v>13972409178</v>
@@ -634,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6">
         <v>18871821756</v>
@@ -718,78 +714,53 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6">
-        <v>18807260781</v>
+        <v>15071863980</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G7" s="6">
-        <v>15172957077</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
+        <v>18071928889</v>
+      </c>
+      <c r="H7" s="7">
+        <v>900</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1800</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
-        <v>15071863980</v>
+        <v>17771667290</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6">
-        <v>18071928889</v>
-      </c>
-      <c r="H8" s="7">
-        <v>900</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6">
-        <v>17771667290</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="6">
         <v>13997779132</v>
       </c>
-      <c r="H9">
+      <c r="H8">
         <v>100</v>
       </c>
-      <c r="J9">
+      <c r="J8">
         <v>2000</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>姓名</t>
   </si>
@@ -25,11 +25,9 @@
   </si>
   <si>
     <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系方式</t>
@@ -42,141 +40,442 @@
   </si>
   <si>
     <t>实际缴费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应缴费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>谭玉清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/化学</t>
+  </si>
+  <si>
+    <t>张老师</t>
+  </si>
+  <si>
+    <t>陈垚</t>
+  </si>
+  <si>
+    <t>胡成果</t>
   </si>
   <si>
     <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡成果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姚老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张永</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牟森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李林欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>田彩荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>林老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理/化学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,12 +483,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -197,19 +738,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,16 +756,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -515,14 +1103,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="5" width="14.25" customWidth="1"/>
@@ -554,7 +1143,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -565,28 +1154,28 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5">
         <v>15272242064</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>13477256849</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>900</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>1800</v>
       </c>
     </row>
@@ -594,28 +1183,28 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
         <v>13972409178</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>13972409178</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>1800</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>1800</v>
       </c>
     </row>
@@ -629,16 +1218,16 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
         <v>18871821756</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5">
         <v>13958684076</v>
       </c>
       <c r="H4">
@@ -650,24 +1239,24 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>18327434602</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6">
-        <v>18327434602</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>18621788095</v>
       </c>
       <c r="H5">
@@ -679,56 +1268,56 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5">
         <v>18872148745</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5">
         <v>15995218243</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>400</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5">
         <v>15071863980</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5">
         <v>18071928889</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>900</v>
       </c>
       <c r="J7" s="8">
@@ -737,24 +1326,24 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
         <v>17771667290</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5">
         <v>13997779132</v>
       </c>
       <c r="H8">
@@ -765,36 +1354,42 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>姓名</t>
   </si>
@@ -57,7 +57,7 @@
     <t>高一（理科）</t>
   </si>
   <si>
-    <t>物理/化学</t>
+    <t>数学/物理</t>
   </si>
   <si>
     <t>张老师</t>
@@ -69,9 +69,6 @@
     <t>胡成果</t>
   </si>
   <si>
-    <t>数学/物理</t>
-  </si>
-  <si>
     <t>姚老师</t>
   </si>
   <si>
@@ -97,6 +94,18 @@
   </si>
   <si>
     <t>林老师</t>
+  </si>
+  <si>
+    <t>张欢</t>
+  </si>
+  <si>
+    <t>简筱勤</t>
+  </si>
+  <si>
+    <t>张莉源</t>
+  </si>
+  <si>
+    <t>田淼屹</t>
   </si>
 </sst>
 </file>
@@ -106,10 +115,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,9 +140,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,120 +255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +483,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,38 +534,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,25 +570,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,151 +588,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,20 +1107,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="5" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="14.25" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="14.25" spans="1:10">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1219,13 +1221,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5">
         <v>18871821756</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5">
         <v>13958684076</v>
@@ -1237,9 +1239,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="14.25" spans="1:10">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -1248,13 +1250,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5">
         <v>18327434602</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>18621788095</v>
@@ -1266,9 +1268,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" ht="14.25" spans="1:10">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1277,13 +1279,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
         <v>18872148745</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5">
         <v>15995218243</v>
@@ -1295,9 +1297,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" ht="14.25" spans="1:10">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1306,13 +1308,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>15071863980</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5">
         <v>18071928889</v>
@@ -1326,22 +1328,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5">
         <v>17771667290</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5">
         <v>13997779132</v>
@@ -1351,6 +1353,119 @@
       </c>
       <c r="J8">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15071844522</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5">
+        <v>13646181872</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5">
+        <v>13477914332</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>18872803898</v>
+      </c>
+      <c r="H10">
+        <v>1180</v>
+      </c>
+      <c r="J10">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>15172847531</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5">
+        <v>18671142667</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>13636276173</v>
+      </c>
+      <c r="G12" s="5">
+        <v>13477267331</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>姓名</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>田淼屹</t>
+  </si>
+  <si>
+    <t>小班</t>
+  </si>
+  <si>
+    <t>胡美林</t>
+  </si>
+  <si>
+    <t>清外</t>
+  </si>
+  <si>
+    <t>八上</t>
   </si>
 </sst>
 </file>
@@ -115,8 +127,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -140,13 +152,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -155,6 +184,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -162,15 +198,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,47 +227,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,15 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,19 +304,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,163 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,21 +495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,39 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +547,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,140 +615,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +769,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1107,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1145,7 +1160,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1322,7 +1337,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>1800</v>
       </c>
     </row>
@@ -1466,6 +1481,34 @@
       </c>
       <c r="J12">
         <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7">
+        <v>13403088611</v>
+      </c>
+      <c r="H17">
+        <v>1900</v>
+      </c>
+      <c r="J17">
+        <v>1900</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>姓名</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>八上</t>
+  </si>
+  <si>
+    <t>倪萌</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,10 +151,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -190,24 +223,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,22 +263,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -258,32 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +314,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,6 +362,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,6 +428,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,7 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,126 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,17 +508,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,40 +583,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,21 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,140 +625,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +778,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1122,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,7 +1173,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1337,7 +1350,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <v>1800</v>
       </c>
     </row>
@@ -1501,13 +1514,36 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>13403088611</v>
       </c>
       <c r="H17">
         <v>1900</v>
       </c>
       <c r="J17">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8">
+        <v>18872131370</v>
+      </c>
+      <c r="H18">
+        <v>1900</v>
+      </c>
+      <c r="J18">
         <v>1900</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>姓名</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>倪萌</t>
+  </si>
+  <si>
+    <t>潘鑫浪</t>
+  </si>
+  <si>
+    <t>七上</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +157,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -277,23 +276,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,140 +624,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,12 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1135,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1173,7 +1166,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1350,7 +1343,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>1800</v>
       </c>
     </row>
@@ -1528,7 +1521,7 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
@@ -1537,7 +1530,7 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="5">
         <v>18872131370</v>
       </c>
       <c r="H18">
@@ -1545,6 +1538,23 @@
       </c>
       <c r="J18">
         <v>1900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>姓名</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>七上</t>
+  </si>
+  <si>
+    <t>陈松</t>
+  </si>
+  <si>
+    <t>忠路中学</t>
+  </si>
+  <si>
+    <t>英语</t>
   </si>
 </sst>
 </file>
@@ -135,11 +144,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +166,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -276,23 +292,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,79 +329,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,60 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,19 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,140 +640,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +794,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1128,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1166,7 +1188,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1343,7 +1365,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="10">
         <v>1800</v>
       </c>
     </row>
@@ -1554,6 +1576,29 @@
         <v>1000</v>
       </c>
       <c r="J19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="8">
+        <v>15272267052</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
         <v>1000</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +166,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -292,23 +285,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +322,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,61 +352,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +430,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,91 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,140 +633,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,12 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1152,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1188,7 +1175,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1365,7 +1352,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>1800</v>
       </c>
     </row>
@@ -1586,17 +1573,17 @@
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="5">
         <v>15272267052</v>
       </c>
       <c r="H20">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J20">
         <v>1000</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>姓名</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>英语</t>
+  </si>
+  <si>
+    <t>魏玉林</t>
+  </si>
+  <si>
+    <t>凉雾</t>
   </si>
 </sst>
 </file>
@@ -143,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -286,22 +292,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,12 +328,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,169 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,16 +639,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,10 +660,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,95 +684,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +793,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1137,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1175,7 +1184,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1352,7 +1361,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>1800</v>
       </c>
     </row>
@@ -1586,6 +1595,29 @@
         <v>500</v>
       </c>
       <c r="J20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7">
+        <v>13581210505</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="J21">
         <v>1000</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>姓名</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>田淼屹</t>
+  </si>
+  <si>
+    <t>牟月</t>
   </si>
   <si>
     <t>小班</t>
@@ -149,12 +152,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +175,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -181,6 +191,127 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,127 +324,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -328,19 +338,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,67 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,19 +488,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,67 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,45 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,22 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +585,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,136 +649,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1148,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1159,7 +1169,7 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1230,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:10">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +1346,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1507,20 +1517,46 @@
         <v>640</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7">
+        <v>15171095154</v>
+      </c>
+      <c r="G13" s="7">
+        <v>13971887715</v>
+      </c>
+      <c r="H13">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>540</v>
+      </c>
+    </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1537,13 +1573,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1560,10 +1596,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1577,16 +1613,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="5">
         <v>15272267052</v>
@@ -1600,18 +1636,18 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>13581210505</v>
       </c>
       <c r="H21">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>姓名</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>刘老师</t>
-  </si>
-  <si>
-    <t>田彩荣</t>
-  </si>
-  <si>
-    <t>二中</t>
-  </si>
-  <si>
-    <t>林老师</t>
   </si>
   <si>
     <t>张欢</t>
@@ -152,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +164,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,67 +284,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,68 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -338,187 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +513,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,21 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,11 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +590,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -620,15 +613,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,136 +633,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1156,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1169,7 +1153,7 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="14.25" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1214,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="14.25" spans="1:10">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1272,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="14.25" spans="1:10">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1301,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" ht="14.25" spans="1:10">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1346,7 +1330,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" ht="14.25" spans="1:10">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1380,33 +1364,33 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="5">
-        <v>17771667290</v>
+        <v>15071844522</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5">
-        <v>13997779132</v>
+        <v>13646181872</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1418,16 +1402,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="5">
-        <v>15071844522</v>
+        <v>13477914332</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5">
-        <v>13646181872</v>
+        <v>18872803898</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>1180</v>
       </c>
       <c r="J9">
         <v>1180</v>
@@ -1435,7 +1419,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1447,16 +1431,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="5">
-        <v>13477914332</v>
+        <v>15172847531</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="5">
-        <v>18872803898</v>
+        <v>18671142667</v>
       </c>
       <c r="H10">
-        <v>1180</v>
+        <v>100</v>
       </c>
       <c r="J10">
         <v>1180</v>
@@ -1464,7 +1448,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1473,27 +1457,24 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5">
-        <v>15172847531</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>13636276173</v>
       </c>
       <c r="G11" s="5">
-        <v>18671142667</v>
+        <v>13477267331</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>1180</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1504,48 +1485,45 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5">
-        <v>13636276173</v>
-      </c>
-      <c r="G12" s="5">
-        <v>13477267331</v>
+      <c r="E12" s="7">
+        <v>15171095154</v>
+      </c>
+      <c r="G12" s="7">
+        <v>13971887715</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="J12">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="7">
-        <v>15171095154</v>
-      </c>
-      <c r="G13" s="7">
-        <v>13971887715</v>
-      </c>
-      <c r="H13">
-        <v>240</v>
-      </c>
-      <c r="J13">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5">
+        <v>13403088611</v>
+      </c>
+      <c r="H16">
+        <v>1900</v>
+      </c>
+      <c r="J16">
+        <v>1900</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1553,16 +1531,16 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="5">
-        <v>13403088611</v>
+        <v>18872131370</v>
       </c>
       <c r="H17">
         <v>1900</v>
@@ -1573,39 +1551,39 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5">
-        <v>18872131370</v>
+        <v>20</v>
       </c>
       <c r="H18">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="J18">
-        <v>1900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
-        <v>20</v>
+      <c r="G19" s="5">
+        <v>15272267052</v>
       </c>
       <c r="H19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J19">
         <v>1000</v>
@@ -1619,41 +1597,18 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G20" s="5">
-        <v>15272267052</v>
+        <v>13581210505</v>
       </c>
       <c r="H20">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5">
-        <v>13581210505</v>
-      </c>
-      <c r="H21">
-        <v>1000</v>
-      </c>
-      <c r="J21">
         <v>1000</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>姓名</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>牟月</t>
+  </si>
+  <si>
+    <t>吴袁杰</t>
   </si>
   <si>
     <t>小班</t>
@@ -143,12 +146,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +166,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -177,6 +193,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,76 +269,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,42 +300,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,61 +330,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,121 +492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,11 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,21 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,6 +565,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,140 +641,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,7 +796,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1143,7 +1160,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1178,7 +1195,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1355,7 +1372,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="12">
         <v>1800</v>
       </c>
     </row>
@@ -1430,7 +1447,7 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>15172847531</v>
       </c>
       <c r="F10" t="s">
@@ -1485,10 +1502,10 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>15171095154</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>13971887715</v>
       </c>
       <c r="H12">
@@ -1498,20 +1515,48 @@
         <v>540</v>
       </c>
     </row>
+    <row r="13" ht="14.25" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10">
+        <v>15172892957</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10">
+        <v>15171094208</v>
+      </c>
+      <c r="H13" s="9">
+        <v>100</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13">
+        <v>1080</v>
+      </c>
+    </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1528,13 +1573,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1551,10 +1596,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1568,16 +1613,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="5">
         <v>15272267052</v>
@@ -1591,13 +1636,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>姓名</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>吴袁杰</t>
+  </si>
+  <si>
+    <t>向卯</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>王晓红</t>
+  </si>
+  <si>
+    <t>二中</t>
+  </si>
+  <si>
+    <t>高一（文科）</t>
   </si>
   <si>
     <t>小班</t>
@@ -146,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -172,74 +187,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,56 +286,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,13 +345,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,169 +513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,36 +536,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,17 +557,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,16 +614,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,19 +656,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,119 +677,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +822,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1157,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1195,7 +1222,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1372,7 +1399,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>1800</v>
       </c>
     </row>
@@ -1509,10 +1536,10 @@
         <v>13971887715</v>
       </c>
       <c r="H12">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="J12">
-        <v>540</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:10">
@@ -1540,120 +1567,176 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E14" s="13">
+        <v>15717261397</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13">
+        <v>13093248808</v>
+      </c>
+      <c r="H14" s="14">
+        <v>100</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
+      <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13">
+        <v>18371855184</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13">
+        <v>13227401343</v>
+      </c>
+      <c r="H15" s="11">
+        <v>100</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G31" s="5">
         <v>13403088611</v>
       </c>
-      <c r="H16">
+      <c r="H31">
         <v>1900</v>
       </c>
-      <c r="J16">
+      <c r="J31">
         <v>1900</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G32" s="5">
         <v>18872131370</v>
       </c>
-      <c r="H17">
+      <c r="H32">
         <v>1900</v>
       </c>
-      <c r="J17">
+      <c r="J32">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="H33">
         <v>1000</v>
       </c>
-      <c r="J18">
+      <c r="J33">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="5">
         <v>15272267052</v>
       </c>
-      <c r="H19">
+      <c r="H34">
         <v>500</v>
       </c>
-      <c r="J19">
+      <c r="J34">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G35" s="5">
         <v>13581210505</v>
       </c>
-      <c r="H20">
+      <c r="H35">
         <v>1000</v>
       </c>
-      <c r="J20">
+      <c r="J35">
         <v>1000</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>姓名</t>
   </si>
@@ -99,6 +99,10 @@
     <t>田淼屹</t>
   </si>
   <si>
+    <t>高一下，
+五中年级第二名</t>
+  </si>
+  <si>
     <t>牟月</t>
   </si>
   <si>
@@ -120,6 +124,18 @@
     <t>高一（文科）</t>
   </si>
   <si>
+    <t>殷万兴</t>
+  </si>
+  <si>
+    <t>吴衍锴</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
+    <t>彭昊</t>
+  </si>
+  <si>
     <t>小班</t>
   </si>
   <si>
@@ -154,6 +170,41 @@
   </si>
   <si>
     <t>凉雾</t>
+  </si>
+  <si>
+    <t>杨寒霜</t>
+  </si>
+  <si>
+    <t>凉雾民中</t>
+  </si>
+  <si>
+    <t>八下</t>
+  </si>
+  <si>
+    <t>张春尧</t>
+  </si>
+  <si>
+    <t>陈海青</t>
+  </si>
+  <si>
+    <t>颜福双</t>
+  </si>
+  <si>
+    <t>凉雾中学
+年级第二名</t>
+  </si>
+  <si>
+    <t>谢帅</t>
+  </si>
+  <si>
+    <t>凉雾中学</t>
+  </si>
+  <si>
+    <t>数学/物理/英语</t>
+  </si>
+  <si>
+    <t>杨萌朋友
+少资料费</t>
   </si>
 </sst>
 </file>
@@ -161,12 +212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,16 +232,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -216,6 +267,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,14 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -241,32 +352,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,59 +381,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -345,37 +403,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,144 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,17 +653,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -630,6 +677,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -644,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,140 +714,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +863,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -817,29 +878,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1184,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1222,7 +1289,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1242,19 +1309,19 @@
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>15272242064</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>13477256849</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>900</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>1800</v>
       </c>
     </row>
@@ -1268,22 +1335,22 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>13972409178</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>13972409178</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>1800</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>1800</v>
       </c>
     </row>
@@ -1297,16 +1364,16 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>18871821756</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>13958684076</v>
       </c>
       <c r="H4">
@@ -1326,16 +1393,16 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>18327434602</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>18621788095</v>
       </c>
       <c r="H5">
@@ -1355,22 +1422,22 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>18872148745</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>15995218243</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>400</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>900</v>
       </c>
     </row>
@@ -1384,22 +1451,22 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>15071863980</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>18071928889</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>900</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="17">
         <v>1800</v>
       </c>
     </row>
@@ -1416,17 +1483,17 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>15071844522</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>13646181872</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>1180</v>
       </c>
       <c r="J8">
         <v>1180</v>
@@ -1445,13 +1512,13 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>13477914332</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>18872803898</v>
       </c>
       <c r="H9">
@@ -1474,13 +1541,13 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>15172847531</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>18671142667</v>
       </c>
       <c r="H10">
@@ -1490,7 +1557,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" ht="40.5" spans="1:10">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1503,14 +1570,17 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>13636276173</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>13477267331</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>540</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="J11">
         <v>640</v>
@@ -1518,7 +1588,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1529,10 +1599,10 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>15171095154</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>13971887715</v>
       </c>
       <c r="H12">
@@ -1543,108 +1613,185 @@
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:10">
-      <c r="A13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11">
         <v>15172892957</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10">
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
         <v>15171094208</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <v>100</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13">
-        <v>1180</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11">
         <v>15717261397</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="13">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11">
         <v>13093248808</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>100</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="10"/>
       <c r="J14">
         <v>640</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:10">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>18371855184</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="13">
+      <c r="F15" s="10"/>
+      <c r="G15" s="11">
         <v>13227401343</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>100</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="10"/>
       <c r="J15">
         <v>640</v>
       </c>
     </row>
+    <row r="16" ht="14.25" spans="1:10">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="11">
+        <v>15571865327</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11">
+        <v>13277537771</v>
+      </c>
+      <c r="H16" s="10">
+        <v>640</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="19">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:10">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13">
+        <v>13277558088</v>
+      </c>
+      <c r="G17" s="13">
+        <v>13277558088</v>
+      </c>
+      <c r="H17">
+        <v>1100</v>
+      </c>
+      <c r="J17">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14">
+        <v>13277558088</v>
+      </c>
+      <c r="G18" s="13">
+        <v>13277558088</v>
+      </c>
+      <c r="H18">
+        <v>1100</v>
+      </c>
+      <c r="J18">
+        <v>1180</v>
+      </c>
+    </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="6">
         <v>13403088611</v>
       </c>
       <c r="H31">
@@ -1656,18 +1803,18 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="6">
         <v>18872131370</v>
       </c>
       <c r="H32">
@@ -1679,10 +1826,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -1696,18 +1843,18 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
       <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="5">
+        <v>48</v>
+      </c>
+      <c r="G34" s="6">
         <v>15272267052</v>
       </c>
       <c r="H34">
@@ -1719,18 +1866,18 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="6">
         <v>13581210505</v>
       </c>
       <c r="H35">
@@ -1738,6 +1885,130 @@
       </c>
       <c r="J35">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:10">
+      <c r="A36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11">
+        <v>15586624958</v>
+      </c>
+      <c r="H36" s="10">
+        <v>640</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="14">
+        <v>15377226688</v>
+      </c>
+      <c r="H37">
+        <v>640</v>
+      </c>
+      <c r="J37">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="14">
+        <v>15027236308</v>
+      </c>
+      <c r="H38">
+        <v>540</v>
+      </c>
+      <c r="J38">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:10">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="14">
+        <v>13477943008</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:10">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="14">
+        <v>13277593640</v>
+      </c>
+      <c r="H40">
+        <v>1620</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40">
+        <v>1720</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>姓名</t>
   </si>
@@ -57,15 +57,18 @@
     <t>高一（理科）</t>
   </si>
   <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>张老师</t>
+  </si>
+  <si>
+    <t>陈垚</t>
+  </si>
+  <si>
     <t>数学/物理</t>
   </si>
   <si>
-    <t>张老师</t>
-  </si>
-  <si>
-    <t>陈垚</t>
-  </si>
-  <si>
     <t>胡成果</t>
   </si>
   <si>
@@ -78,9 +81,6 @@
     <t>牟森</t>
   </si>
   <si>
-    <t>数学</t>
-  </si>
-  <si>
     <t>李林欣</t>
   </si>
   <si>
@@ -90,7 +90,7 @@
     <t>张欢</t>
   </si>
   <si>
-    <t>简筱勤</t>
+    <t>简筱晴</t>
   </si>
   <si>
     <t>张莉源</t>
@@ -136,6 +136,18 @@
     <t>彭昊</t>
   </si>
   <si>
+    <t>吴涛</t>
+  </si>
+  <si>
+    <t>罗焱</t>
+  </si>
+  <si>
+    <t>杨聪</t>
+  </si>
+  <si>
+    <t>张王秋</t>
+  </si>
+  <si>
     <t>小班</t>
   </si>
   <si>
@@ -145,40 +157,34 @@
     <t>清外</t>
   </si>
   <si>
+    <t>八下</t>
+  </si>
+  <si>
+    <t>倪萌</t>
+  </si>
+  <si>
+    <t>潘鑫浪</t>
+  </si>
+  <si>
+    <t>七上</t>
+  </si>
+  <si>
+    <t>陈松</t>
+  </si>
+  <si>
+    <t>忠路中学</t>
+  </si>
+  <si>
     <t>八上</t>
   </si>
   <si>
-    <t>倪萌</t>
-  </si>
-  <si>
-    <t>潘鑫浪</t>
-  </si>
-  <si>
-    <t>七上</t>
-  </si>
-  <si>
-    <t>陈松</t>
-  </si>
-  <si>
-    <t>忠路中学</t>
-  </si>
-  <si>
     <t>英语</t>
   </si>
   <si>
-    <t>魏玉林</t>
-  </si>
-  <si>
-    <t>凉雾</t>
-  </si>
-  <si>
     <t>杨寒霜</t>
   </si>
   <si>
     <t>凉雾民中</t>
-  </si>
-  <si>
-    <t>八下</t>
   </si>
   <si>
     <t>张春尧</t>
@@ -205,6 +211,15 @@
   <si>
     <t>杨萌朋友
 少资料费</t>
+  </si>
+  <si>
+    <t>谭豪英</t>
+  </si>
+  <si>
+    <t>东城初中</t>
+  </si>
+  <si>
+    <t>谭俊英</t>
   </si>
 </sst>
 </file>
@@ -232,6 +247,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -239,9 +259,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -267,6 +319,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -283,111 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -403,151 +418,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,17 +636,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,15 +656,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,8 +689,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,140 +729,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,9 +878,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -878,23 +890,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1251,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,7 +1298,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1309,20 +1318,20 @@
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>15272242064</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>13477256849</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>900</v>
       </c>
-      <c r="J2" s="7">
-        <v>1800</v>
+      <c r="J2" s="6">
+        <v>1180</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:10">
@@ -1335,28 +1344,28 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
         <v>13972409178</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>13972409178</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>1800</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1364,16 +1373,16 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
         <v>18871821756</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5">
         <v>13958684076</v>
       </c>
       <c r="H4">
@@ -1385,7 +1394,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:10">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -1393,16 +1402,16 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
         <v>18327434602</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5">
         <v>18621788095</v>
       </c>
       <c r="H5">
@@ -1414,7 +1423,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1422,22 +1431,22 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
         <v>18872148745</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5">
         <v>15995218243</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>400</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>900</v>
       </c>
     </row>
@@ -1451,22 +1460,22 @@
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5">
         <v>15071863980</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>18071928889</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <v>1800</v>
       </c>
     </row>
@@ -1481,15 +1490,15 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
         <v>15071844522</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>13646181872</v>
       </c>
       <c r="H8">
@@ -1510,15 +1519,15 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
         <v>13477914332</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>18872803898</v>
       </c>
       <c r="H9">
@@ -1539,19 +1548,19 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7">
         <v>15172847531</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>18671142667</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>1180</v>
       </c>
       <c r="J10">
         <v>1180</v>
@@ -1568,18 +1577,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
         <v>13636276173</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>13477267331</v>
       </c>
       <c r="H11">
         <v>540</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J11">
@@ -1597,12 +1606,12 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8">
         <v>15171095154</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>13971887715</v>
       </c>
       <c r="H12">
@@ -1613,114 +1622,114 @@
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10">
         <v>15172892957</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10">
         <v>15171094208</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>100</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="9"/>
       <c r="J13">
         <v>640</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>15717261397</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="10">
         <v>13093248808</v>
       </c>
-      <c r="H14" s="12">
-        <v>100</v>
-      </c>
-      <c r="I14" s="10"/>
+      <c r="H14" s="11">
+        <v>640</v>
+      </c>
+      <c r="I14" s="9"/>
       <c r="J14">
         <v>640</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10">
         <v>18371855184</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10">
         <v>13227401343</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>100</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
       <c r="J15">
         <v>640</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="10">
         <v>15571865327</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11">
+      <c r="F16" s="9"/>
+      <c r="G16" s="10">
         <v>13277537771</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>640</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="19">
+      <c r="I16" s="9"/>
+      <c r="J16" s="17">
         <v>640</v>
       </c>
     </row>
@@ -1731,13 +1740,13 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
         <v>13277558088</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="5">
         <v>13277558088</v>
       </c>
       <c r="H17">
@@ -1751,19 +1760,19 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="14">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
         <v>13277558088</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="5">
         <v>13277558088</v>
       </c>
       <c r="H18">
@@ -1773,25 +1782,129 @@
         <v>1180</v>
       </c>
     </row>
+    <row r="19" ht="14.25" spans="1:10">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="13">
+        <v>15671872987</v>
+      </c>
+      <c r="G19" s="13">
+        <v>18727685390</v>
+      </c>
+      <c r="H19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13">
+        <v>18972411356</v>
+      </c>
+      <c r="G20" s="13">
+        <v>15335850555</v>
+      </c>
+      <c r="H20">
+        <v>640</v>
+      </c>
+      <c r="J20">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="13">
+        <v>15587535809</v>
+      </c>
+      <c r="G21" s="13">
+        <v>15172808399</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="J21" s="12">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="13">
+        <v>18872817398</v>
+      </c>
+      <c r="G22" s="13">
+        <v>15971708966</v>
+      </c>
+      <c r="H22">
+        <v>1100</v>
+      </c>
+      <c r="J22">
+        <v>1180</v>
+      </c>
+    </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="6">
+        <v>16</v>
+      </c>
+      <c r="G31" s="5">
         <v>13403088611</v>
       </c>
       <c r="H31">
@@ -1803,18 +1916,18 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="6">
+        <v>16</v>
+      </c>
+      <c r="G32" s="5">
         <v>18872131370</v>
       </c>
       <c r="H32">
@@ -1826,13 +1939,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H33">
         <v>1000</v>
@@ -1843,18 +1956,18 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="6">
+        <v>53</v>
+      </c>
+      <c r="G34" s="5">
         <v>15272267052</v>
       </c>
       <c r="H34">
@@ -1864,151 +1977,174 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="6">
-        <v>13581210505</v>
-      </c>
-      <c r="H35">
-        <v>1000</v>
-      </c>
+    <row r="35" ht="14.25" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10">
+        <v>15586624958</v>
+      </c>
+      <c r="H35" s="9">
+        <v>640</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:10">
-      <c r="A36" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11">
-        <v>15586624958</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="G36" s="5">
+        <v>15377226688</v>
+      </c>
+      <c r="H36">
         <v>640</v>
       </c>
-      <c r="I36" s="10"/>
       <c r="J36">
         <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="14">
-        <v>15377226688</v>
+        <v>13</v>
+      </c>
+      <c r="G37" s="5">
+        <v>15027236308</v>
       </c>
       <c r="H37">
-        <v>640</v>
+        <v>540</v>
       </c>
       <c r="J37">
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" ht="40.5" spans="1:10">
       <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>42</v>
+      <c r="C38" t="s">
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="14">
-        <v>15027236308</v>
+        <v>31</v>
+      </c>
+      <c r="G38" s="5">
+        <v>13477943008</v>
       </c>
       <c r="H38">
-        <v>540</v>
+        <v>100</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="J38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:10">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="5">
+        <v>13277593640</v>
+      </c>
+      <c r="H39">
+        <v>1620</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="5">
+        <v>18872818759</v>
+      </c>
+      <c r="H40">
         <v>640</v>
       </c>
-    </row>
-    <row r="39" ht="40.5" spans="1:10">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="14">
-        <v>13477943008</v>
-      </c>
-      <c r="H39">
-        <v>100</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:10">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="14">
-        <v>13277593640</v>
-      </c>
-      <c r="H40">
-        <v>1620</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="J40">
-        <v>1720</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="5">
+        <v>18872818759</v>
+      </c>
+      <c r="H41">
+        <v>640</v>
+      </c>
+      <c r="J41">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>姓名</t>
   </si>
@@ -124,6 +124,9 @@
     <t>高一（文科）</t>
   </si>
   <si>
+    <t>英语</t>
+  </si>
+  <si>
     <t>殷万兴</t>
   </si>
   <si>
@@ -148,6 +151,15 @@
     <t>张王秋</t>
   </si>
   <si>
+    <t>黄白雪</t>
+  </si>
+  <si>
+    <t>朱于琴</t>
+  </si>
+  <si>
+    <t>孙国芳</t>
+  </si>
+  <si>
     <t>小班</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
   </si>
   <si>
     <t>八上</t>
-  </si>
-  <si>
-    <t>英语</t>
   </si>
   <si>
     <t>杨寒霜</t>
@@ -266,8 +275,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +314,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -296,29 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -326,17 +336,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,6 +377,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -363,43 +398,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,6 +427,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,169 +577,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,11 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,21 +671,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,16 +696,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,140 +738,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +906,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
@@ -1262,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,7 +1316,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1475,7 +1493,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="18">
         <v>1800</v>
       </c>
     </row>
@@ -1588,7 +1606,7 @@
       <c r="H11">
         <v>540</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J11">
@@ -1688,7 +1706,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E15" s="10">
         <v>18371855184</v>
@@ -1707,7 +1725,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
@@ -1729,16 +1747,16 @@
         <v>640</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="17">
+      <c r="J16" s="20">
         <v>640</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>16</v>
@@ -1758,7 +1776,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:10">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -1784,7 +1802,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:10">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>11</v>
@@ -1792,13 +1810,13 @@
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="5">
         <v>15671872987</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="5">
         <v>18727685390</v>
       </c>
       <c r="H19">
@@ -1810,7 +1828,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:10">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1821,10 +1839,10 @@
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="5">
         <v>18972411356</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="5">
         <v>15335850555</v>
       </c>
       <c r="H20">
@@ -1836,7 +1854,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1847,22 +1865,22 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="5">
         <v>15587535809</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="5">
         <v>15172808399</v>
       </c>
       <c r="H21">
-        <v>500</v>
-      </c>
-      <c r="J21" s="12">
+        <v>640</v>
+      </c>
+      <c r="J21">
         <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1870,13 +1888,13 @@
       <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="5">
         <v>18872817398</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="5">
         <v>15971708966</v>
       </c>
       <c r="H22">
@@ -1886,20 +1904,99 @@
         <v>1180</v>
       </c>
     </row>
+    <row r="23" ht="14.25" spans="1:10">
+      <c r="A23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="8">
+        <v>15587656830</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="8">
+        <v>13886752328</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:10">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="16">
+        <v>15172974901</v>
+      </c>
+      <c r="G24" s="16">
+        <v>13477210496</v>
+      </c>
+      <c r="H24">
+        <v>640</v>
+      </c>
+      <c r="J24">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:10">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="16">
+        <v>15227221149</v>
+      </c>
+      <c r="G25" s="16">
+        <v>18872138550</v>
+      </c>
+      <c r="H25">
+        <v>640</v>
+      </c>
+      <c r="J25">
+        <v>640</v>
+      </c>
+    </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1916,13 +2013,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -1939,33 +2036,33 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="H33">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G34" s="5">
         <v>15272267052</v>
@@ -1979,13 +2076,13 @@
     </row>
     <row r="35" ht="14.25" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>31</v>
@@ -2005,13 +2102,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
@@ -2028,13 +2125,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2051,13 +2148,13 @@
     </row>
     <row r="38" ht="40.5" spans="1:10">
       <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
@@ -2068,8 +2165,8 @@
       <c r="H38">
         <v>100</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>59</v>
+      <c r="I38" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -2077,16 +2174,16 @@
     </row>
     <row r="39" ht="27" spans="1:10">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G39" s="5">
         <v>13277593640</v>
@@ -2094,8 +2191,8 @@
       <c r="H39">
         <v>1620</v>
       </c>
-      <c r="I39" s="16" t="s">
-        <v>63</v>
+      <c r="I39" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="J39">
         <v>1720</v>
@@ -2103,13 +2200,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2126,13 +2223,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>姓名</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>吴袁杰</t>
+  </si>
+  <si>
+    <t>高一下</t>
   </si>
   <si>
     <t>向卯</t>
@@ -241,7 +244,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,13 +262,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,144 +441,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,12 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,140 +734,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,12 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1280,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1316,7 +1306,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1493,7 +1483,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <v>1800</v>
       </c>
     </row>
@@ -1606,7 +1596,7 @@
       <c r="H11">
         <v>540</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="J11">
@@ -1662,14 +1652,16 @@
       <c r="H13" s="9">
         <v>100</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J13">
         <v>640</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>11</v>
@@ -1678,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="10">
         <v>15717261397</v>
@@ -1697,16 +1689,16 @@
     </row>
     <row r="15" ht="14.25" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10">
         <v>18371855184</v>
@@ -1725,7 +1717,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
@@ -1747,16 +1739,16 @@
         <v>640</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <v>640</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>16</v>
@@ -1776,7 +1768,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:10">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -1802,7 +1794,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:10">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>11</v>
@@ -1828,13 +1820,13 @@
     </row>
     <row r="20" ht="14.25" spans="1:10">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1854,7 +1846,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1880,7 +1872,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1906,7 +1898,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:10">
       <c r="A23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>11</v>
@@ -1915,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="8">
         <v>15587656830</v>
@@ -1933,21 +1925,21 @@
     </row>
     <row r="24" ht="14.25" spans="1:10">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="5">
         <v>15172974901</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="5">
         <v>13477210496</v>
       </c>
       <c r="H24">
@@ -1959,21 +1951,21 @@
     </row>
     <row r="25" ht="14.25" spans="1:10">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="5">
         <v>15227221149</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="5">
         <v>18872138550</v>
       </c>
       <c r="H25">
@@ -1985,18 +1977,18 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -2013,13 +2005,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
         <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2036,10 +2028,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2053,16 +2045,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" s="5">
         <v>15272267052</v>
@@ -2076,16 +2068,16 @@
     </row>
     <row r="35" ht="14.25" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2102,16 +2094,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
         <v>59</v>
       </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" s="5">
         <v>15377226688</v>
@@ -2125,13 +2117,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2148,16 +2140,16 @@
     </row>
     <row r="38" ht="40.5" spans="1:10">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" s="5">
         <v>13477943008</v>
@@ -2165,8 +2157,8 @@
       <c r="H38">
         <v>100</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>62</v>
+      <c r="I38" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -2174,16 +2166,16 @@
     </row>
     <row r="39" ht="27" spans="1:10">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G39" s="5">
         <v>13277593640</v>
@@ -2191,8 +2183,8 @@
       <c r="H39">
         <v>1620</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>66</v>
+      <c r="I39" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="J39">
         <v>1720</v>
@@ -2200,13 +2192,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2223,13 +2215,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>姓名</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>孙国芳</t>
+  </si>
+  <si>
+    <t>杨兰</t>
   </si>
   <si>
     <t>小班</t>
@@ -239,12 +242,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,22 +270,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -294,16 +281,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -319,14 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +342,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,30 +388,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,20 +419,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -423,55 +433,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,127 +595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +624,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,38 +675,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,25 +711,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,140 +744,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +922,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1270,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1306,7 +1322,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1483,7 +1499,7 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="18">
         <v>1800</v>
       </c>
     </row>
@@ -1596,7 +1612,7 @@
       <c r="H11">
         <v>540</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J11">
@@ -1739,7 +1755,7 @@
         <v>640</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="18">
+      <c r="J16" s="20">
         <v>640</v>
       </c>
     </row>
@@ -1975,20 +1991,46 @@
         <v>640</v>
       </c>
     </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16">
+        <v>13227460454</v>
+      </c>
+      <c r="G26" s="16">
+        <v>15587533514</v>
+      </c>
+      <c r="H26">
+        <v>1080</v>
+      </c>
+      <c r="J26">
+        <v>1180</v>
+      </c>
+    </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -2005,13 +2047,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2028,10 +2070,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2045,13 +2087,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -2068,13 +2110,13 @@
     </row>
     <row r="35" ht="14.25" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>32</v>
@@ -2094,13 +2136,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -2117,13 +2159,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2140,13 +2182,13 @@
     </row>
     <row r="38" ht="40.5" spans="1:10">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
@@ -2157,8 +2199,8 @@
       <c r="H38">
         <v>100</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>63</v>
+      <c r="I38" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -2166,16 +2208,16 @@
     </row>
     <row r="39" ht="27" spans="1:10">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="5">
         <v>13277593640</v>
@@ -2183,8 +2225,8 @@
       <c r="H39">
         <v>1620</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>67</v>
+      <c r="I39" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="J39">
         <v>1720</v>
@@ -2192,13 +2234,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2215,13 +2257,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
         <v>70</v>
       </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>姓名</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>杨兰</t>
+  </si>
+  <si>
+    <t>喻宇航</t>
   </si>
   <si>
     <t>小班</t>
@@ -242,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -275,50 +278,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -334,7 +332,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,30 +347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,23 +370,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,10 +408,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -433,19 +436,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +538,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,145 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,36 +627,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,17 +648,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,16 +705,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +747,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,8 +1289,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1998,16 +2001,16 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="5">
         <v>13227460454</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="5">
         <v>15587533514</v>
       </c>
       <c r="H26">
@@ -2017,20 +2020,41 @@
         <v>1180</v>
       </c>
     </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27"/>
+      <c r="D27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="16">
+        <v>18948358045</v>
+      </c>
+      <c r="G27" s="16">
+        <v>13417406231</v>
+      </c>
+      <c r="H27">
+        <v>800</v>
+      </c>
+      <c r="J27">
+        <v>800</v>
+      </c>
+    </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -2047,13 +2071,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2070,10 +2094,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2087,13 +2111,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -2110,13 +2134,13 @@
     </row>
     <row r="35" ht="14.25" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>32</v>
@@ -2136,13 +2160,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
@@ -2159,13 +2183,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2182,13 +2206,13 @@
     </row>
     <row r="38" ht="40.5" spans="1:10">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
@@ -2200,7 +2224,7 @@
         <v>100</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -2208,16 +2232,16 @@
     </row>
     <row r="39" ht="27" spans="1:10">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G39" s="5">
         <v>13277593640</v>
@@ -2226,7 +2250,7 @@
         <v>1620</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J39">
         <v>1720</v>
@@ -2234,13 +2258,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2257,13 +2281,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>姓名</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>张永</t>
+  </si>
+  <si>
+    <t>物理</t>
   </si>
   <si>
     <t>牟森</t>
@@ -112,12 +115,6 @@
     <t>高一下</t>
   </si>
   <si>
-    <t>向卯</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
     <t>王晓红</t>
   </si>
   <si>
@@ -133,12 +130,6 @@
     <t>殷万兴</t>
   </si>
   <si>
-    <t>吴衍锴</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
     <t>彭昊</t>
   </si>
   <si>
@@ -160,6 +151,10 @@
     <t>朱于琴</t>
   </si>
   <si>
+    <t xml:space="preserve">已上八节课，工36节课
+</t>
+  </si>
+  <si>
     <t>孙国芳</t>
   </si>
   <si>
@@ -167,6 +162,9 @@
   </si>
   <si>
     <t>喻宇航</t>
+  </si>
+  <si>
+    <t>付小琴</t>
   </si>
   <si>
     <t>小班</t>
@@ -245,12 +243,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,36 +270,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +306,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -358,30 +349,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,10 +381,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -426,6 +411,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -436,6 +427,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,19 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +505,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,115 +589,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,26 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -727,6 +698,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,140 +738,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,9 +905,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -925,12 +913,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1287,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1325,7 +1307,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1355,7 +1337,7 @@
         <v>13477256849</v>
       </c>
       <c r="H2" s="6">
-        <v>900</v>
+        <v>1180</v>
       </c>
       <c r="J2" s="6">
         <v>1180</v>
@@ -1384,10 +1366,10 @@
         <v>13972409178</v>
       </c>
       <c r="H3" s="6">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="J3" s="6">
-        <v>1800</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1413,10 +1395,10 @@
         <v>13958684076</v>
       </c>
       <c r="H4">
-        <v>1800</v>
+        <v>2060</v>
       </c>
       <c r="J4">
-        <v>1800</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
@@ -1430,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
         <v>18327434602</v>
@@ -1442,15 +1424,15 @@
         <v>18621788095</v>
       </c>
       <c r="H5">
-        <v>800</v>
+        <v>1280</v>
       </c>
       <c r="J5">
-        <v>1800</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1471,15 +1453,15 @@
         <v>15995218243</v>
       </c>
       <c r="H6" s="6">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="J6" s="6">
-        <v>900</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1494,7 +1476,7 @@
         <v>15071863980</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5">
         <v>18071928889</v>
@@ -1502,13 +1484,13 @@
       <c r="H7" s="6">
         <v>900</v>
       </c>
-      <c r="J7" s="18">
-        <v>1800</v>
+      <c r="J7" s="15">
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1523,7 +1505,7 @@
         <v>15071844522</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5">
         <v>13646181872</v>
@@ -1537,7 +1519,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1552,7 +1534,7 @@
         <v>13477914332</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5">
         <v>18872803898</v>
@@ -1566,7 +1548,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1581,7 +1563,7 @@
         <v>15172847531</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5">
         <v>18671142667</v>
@@ -1595,7 +1577,7 @@
     </row>
     <row r="11" ht="40.5" spans="1:10">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1615,8 +1597,8 @@
       <c r="H11">
         <v>540</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>27</v>
+      <c r="I11" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="J11">
         <v>640</v>
@@ -1624,7 +1606,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1650,7 +1632,7 @@
     </row>
     <row r="13" ht="14.25" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -1672,7 +1654,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J13">
         <v>640</v>
@@ -1680,26 +1662,26 @@
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="10">
-        <v>15717261397</v>
+        <v>18371855184</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10">
-        <v>13093248808</v>
-      </c>
-      <c r="H14" s="11">
-        <v>640</v>
+        <v>13227401343</v>
+      </c>
+      <c r="H14" s="9">
+        <v>100</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14">
@@ -1708,34 +1690,34 @@
     </row>
     <row r="15" ht="14.25" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E15" s="10">
-        <v>18371855184</v>
+        <v>15571865327</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10">
-        <v>13227401343</v>
+        <v>13277537771</v>
       </c>
       <c r="H15" s="9">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15">
+      <c r="J15" s="17">
         <v>640</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:10">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1744,42 +1726,43 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="10">
-        <v>15571865327</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10">
-        <v>13277537771</v>
-      </c>
-      <c r="H16" s="9">
-        <v>640</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="20">
-        <v>640</v>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <v>13277558088</v>
+      </c>
+      <c r="G16" s="5">
+        <v>13277558088</v>
+      </c>
+      <c r="H16">
+        <v>1180</v>
+      </c>
+      <c r="J16">
+        <v>1180</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="5">
-        <v>13277558088</v>
+        <v>15671872987</v>
       </c>
       <c r="G17" s="5">
-        <v>13277558088</v>
+        <v>18727685390</v>
       </c>
       <c r="H17">
-        <v>1100</v>
+        <v>1180</v>
       </c>
       <c r="J17">
         <v>1180</v>
@@ -1787,113 +1770,114 @@
     </row>
     <row r="18" ht="14.25" spans="1:10">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5">
+        <v>18972411356</v>
+      </c>
+      <c r="G18" s="5">
+        <v>15335850555</v>
+      </c>
+      <c r="H18">
+        <v>640</v>
+      </c>
+      <c r="J18">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5">
-        <v>13277558088</v>
-      </c>
-      <c r="G18" s="5">
-        <v>13277558088</v>
-      </c>
-      <c r="H18">
-        <v>1100</v>
-      </c>
-      <c r="J18">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:10">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5">
+        <v>15587535809</v>
+      </c>
+      <c r="G19" s="5">
+        <v>15172808399</v>
+      </c>
+      <c r="H19">
+        <v>640</v>
+      </c>
+      <c r="J19">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5">
-        <v>15671872987</v>
-      </c>
-      <c r="G19" s="5">
-        <v>18727685390</v>
-      </c>
-      <c r="H19">
-        <v>500</v>
-      </c>
-      <c r="J19">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" t="s">
-        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>35</v>
+      <c r="C20" t="s">
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="5">
-        <v>18972411356</v>
+        <v>18872817398</v>
       </c>
       <c r="G20" s="5">
-        <v>15335850555</v>
+        <v>15971708966</v>
       </c>
       <c r="H20">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="J20">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
+      <c r="A21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5">
-        <v>15587535809</v>
-      </c>
-      <c r="G21" s="5">
-        <v>15172808399</v>
-      </c>
-      <c r="H21">
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8">
+        <v>15587656830</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8">
+        <v>13886752328</v>
+      </c>
+      <c r="H21" s="13">
         <v>640</v>
       </c>
       <c r="J21">
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" ht="54" spans="1:10">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
@@ -1903,95 +1887,91 @@
         <v>13</v>
       </c>
       <c r="E22" s="5">
-        <v>18872817398</v>
+        <v>15172974901</v>
       </c>
       <c r="G22" s="5">
-        <v>15971708966</v>
+        <v>13477210496</v>
       </c>
       <c r="H22">
-        <v>1100</v>
+        <v>640</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="J22">
-        <v>1180</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="8">
-        <v>15587656830</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="8">
-        <v>13886752328</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5">
+        <v>15227221149</v>
+      </c>
+      <c r="G23" s="5">
+        <v>18872138550</v>
+      </c>
+      <c r="H23">
+        <v>640</v>
       </c>
       <c r="J23">
         <v>640</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:10">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="5">
-        <v>15172974901</v>
+        <v>13227460454</v>
       </c>
       <c r="G24" s="5">
-        <v>13477210496</v>
+        <v>15587533514</v>
       </c>
       <c r="H24">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="J24">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:10">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5">
-        <v>15227221149</v>
+        <v>18948358045</v>
       </c>
       <c r="G25" s="5">
-        <v>18872138550</v>
+        <v>13417406231</v>
       </c>
       <c r="H25">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="J25">
-        <v>640</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1999,306 +1979,285 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5">
+        <v>13032794993</v>
+      </c>
+      <c r="G26" s="5">
+        <v>15727263201</v>
+      </c>
+      <c r="H26">
+        <v>400</v>
+      </c>
+      <c r="J26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="5">
-        <v>13227460454</v>
-      </c>
-      <c r="G26" s="5">
-        <v>15587533514</v>
-      </c>
-      <c r="H26">
-        <v>1080</v>
-      </c>
-      <c r="J26">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27"/>
-      <c r="D27" s="15" t="s">
+      <c r="G29" s="5">
+        <v>13403088611</v>
+      </c>
+      <c r="H29">
+        <v>1900</v>
+      </c>
+      <c r="J29">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="16">
-        <v>18948358045</v>
-      </c>
-      <c r="G27" s="16">
-        <v>13417406231</v>
-      </c>
-      <c r="H27">
-        <v>800</v>
-      </c>
-      <c r="J27">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>50</v>
+      <c r="G30" s="5">
+        <v>18872131370</v>
+      </c>
+      <c r="H30">
+        <v>1900</v>
+      </c>
+      <c r="J30">
+        <v>1900</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="5">
-        <v>13403088611</v>
+        <v>13</v>
       </c>
       <c r="H31">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="5">
+        <v>15272267052</v>
+      </c>
+      <c r="H32">
+        <v>500</v>
+      </c>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:10">
+      <c r="A33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="5">
-        <v>18872131370</v>
-      </c>
-      <c r="H32">
-        <v>1900</v>
-      </c>
-      <c r="J32">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
+      <c r="D33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10">
+        <v>15586624958</v>
+      </c>
+      <c r="H33" s="9">
+        <v>640</v>
+      </c>
+      <c r="I33" s="9"/>
       <c r="J33">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G34" s="5">
-        <v>15272267052</v>
+        <v>15377226688</v>
       </c>
       <c r="H34">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="J34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:10">
-      <c r="A35" s="9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10">
-        <v>15586624958</v>
-      </c>
-      <c r="H35" s="9">
-        <v>640</v>
-      </c>
-      <c r="I35" s="9"/>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="5">
+        <v>15027236308</v>
+      </c>
+      <c r="H35">
+        <v>540</v>
+      </c>
       <c r="J35">
         <v>640</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" ht="40.5" spans="1:10">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G36" s="5">
-        <v>15377226688</v>
+        <v>13477943008</v>
       </c>
       <c r="H36">
-        <v>640</v>
+        <v>100</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="J36">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:10">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="5">
+        <v>13277593640</v>
+      </c>
+      <c r="H37">
+        <v>1620</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="5">
-        <v>15027236308</v>
-      </c>
-      <c r="H37">
-        <v>540</v>
-      </c>
-      <c r="J37">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:10">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
       <c r="G38" s="5">
-        <v>13477943008</v>
+        <v>18872818759</v>
       </c>
       <c r="H38">
-        <v>100</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>65</v>
+        <v>640</v>
       </c>
       <c r="J38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:10">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G39" s="5">
-        <v>13277593640</v>
+        <v>18872818759</v>
       </c>
       <c r="H39">
-        <v>1620</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>69</v>
+        <v>640</v>
       </c>
       <c r="J39">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="5">
-        <v>18872818759</v>
-      </c>
-      <c r="H40">
-        <v>640</v>
-      </c>
-      <c r="J40">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="5">
-        <v>18872818759</v>
-      </c>
-      <c r="H41">
-        <v>640</v>
-      </c>
-      <c r="J41">
         <v>640</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -243,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -270,6 +270,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,29 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -349,6 +349,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,30 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -427,6 +427,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,30 +475,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,6 +505,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,24 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -698,26 +718,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1271,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1482,10 +1482,10 @@
         <v>18071928889</v>
       </c>
       <c r="H7" s="6">
-        <v>900</v>
+        <v>1620</v>
       </c>
       <c r="J7" s="15">
-        <v>1180</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="8" spans="1:10">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>姓名</t>
   </si>
@@ -179,6 +179,9 @@
     <t>八下</t>
   </si>
   <si>
+    <t>英语/化学 数学/物理</t>
+  </si>
+  <si>
     <t>倪萌</t>
   </si>
   <si>
@@ -236,6 +239,12 @@
   </si>
   <si>
     <t>谭俊英</t>
+  </si>
+  <si>
+    <t>牟浩元</t>
+  </si>
+  <si>
+    <t>高一</t>
   </si>
 </sst>
 </file>
@@ -243,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -275,22 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -298,9 +291,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,31 +336,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +361,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -360,17 +407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,35 +422,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -427,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,17 +630,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,17 +684,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,39 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,19 +747,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,112 +768,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1269,16 +1278,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="5" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2000,6 +2010,12 @@
         <v>400</v>
       </c>
     </row>
+    <row r="27" spans="8:8">
+      <c r="H27">
+        <f>SUM(H2:H26)</f>
+        <v>21560</v>
+      </c>
+    </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>49</v>
@@ -2016,21 +2032,21 @@
         <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G29" s="5">
         <v>13403088611</v>
       </c>
       <c r="H29">
-        <v>1900</v>
+        <v>3080</v>
       </c>
       <c r="J29">
-        <v>1900</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
@@ -2048,15 +2064,15 @@
         <v>1900</v>
       </c>
       <c r="J30">
-        <v>1900</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2070,13 +2086,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -2085,7 +2101,7 @@
         <v>15272267052</v>
       </c>
       <c r="H32">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J32">
         <v>1000</v>
@@ -2093,10 +2109,10 @@
     </row>
     <row r="33" ht="14.25" spans="1:10">
       <c r="A33" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>52</v>
@@ -2119,10 +2135,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -2142,10 +2158,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
@@ -2165,10 +2181,10 @@
     </row>
     <row r="36" ht="40.5" spans="1:10">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
@@ -2183,7 +2199,7 @@
         <v>100</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -2191,16 +2207,16 @@
     </row>
     <row r="37" ht="27" spans="1:10">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G37" s="5">
         <v>13277593640</v>
@@ -2209,7 +2225,7 @@
         <v>1620</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J37">
         <v>1720</v>
@@ -2217,10 +2233,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -2240,10 +2256,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2259,6 +2275,26 @@
       </c>
       <c r="J39">
         <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40">
+        <f>SUM(H29:H39)</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -252,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -284,6 +284,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -291,38 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,17 +323,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,16 +362,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,24 +407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,13 +422,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -436,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,32 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,35 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,6 +694,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,145 +735,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1280,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1634,10 +1634,10 @@
         <v>13971887715</v>
       </c>
       <c r="H12">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="J12">
-        <v>640</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:10">
@@ -2013,7 +2013,7 @@
     <row r="27" spans="8:8">
       <c r="H27">
         <f>SUM(H2:H26)</f>
-        <v>21560</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2283,7 +2283,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2295,6 +2295,12 @@
       </c>
       <c r="D44" t="s">
         <v>13</v>
+      </c>
+      <c r="H44">
+        <v>4100</v>
+      </c>
+      <c r="J44">
+        <v>4100</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>姓名</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>刘老师</t>
+  </si>
+  <si>
+    <t>退440</t>
   </si>
   <si>
     <t>张欢</t>
@@ -151,7 +154,7 @@
     <t>朱于琴</t>
   </si>
   <si>
-    <t xml:space="preserve">已上八节课，工36节课
+    <t xml:space="preserve">已上八节课，共36节课
 </t>
   </si>
   <si>
@@ -252,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -278,7 +281,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,22 +347,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,39 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,52 +409,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,13 +439,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +571,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,157 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +630,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,38 +681,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,25 +717,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1280,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1494,13 +1497,16 @@
       <c r="H7" s="6">
         <v>1620</v>
       </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
       <c r="J7" s="15">
         <v>1820</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1529,7 +1535,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1582,12 +1588,12 @@
         <v>1180</v>
       </c>
       <c r="J10">
-        <v>1180</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:10">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1605,10 +1611,10 @@
         <v>13477267331</v>
       </c>
       <c r="H11">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <v>640</v>
@@ -1616,7 +1622,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="13" ht="14.25" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -1661,10 +1667,10 @@
         <v>15171094208</v>
       </c>
       <c r="H13" s="9">
-        <v>100</v>
+        <v>630</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J13">
         <v>640</v>
@@ -1672,16 +1678,16 @@
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="10">
         <v>18371855184</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -1728,7 +1734,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:10">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
@@ -1780,13 +1786,13 @@
     </row>
     <row r="18" ht="14.25" spans="1:10">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1832,7 +1838,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>11</v>
@@ -1885,7 +1891,7 @@
     </row>
     <row r="22" ht="54" spans="1:10">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>11</v>
@@ -1906,7 +1912,7 @@
         <v>640</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>640</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:10">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>11</v>
@@ -1940,7 +1946,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -1986,13 +1992,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2013,26 +2019,26 @@
     <row r="27" spans="8:8">
       <c r="H27">
         <f>SUM(H2:H26)</f>
-        <v>22200</v>
+        <v>22830</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="5">
         <v>13403088611</v>
@@ -2046,13 +2052,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -2069,10 +2075,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2086,16 +2092,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32" s="5">
         <v>15272267052</v>
@@ -2109,13 +2115,13 @@
     </row>
     <row r="33" ht="14.25" spans="1:10">
       <c r="A33" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>20</v>
@@ -2135,13 +2141,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -2158,13 +2164,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2181,13 +2187,13 @@
     </row>
     <row r="36" ht="40.5" spans="1:10">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -2199,7 +2205,7 @@
         <v>100</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -2207,16 +2213,16 @@
     </row>
     <row r="37" ht="27" spans="1:10">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G37" s="5">
         <v>13277593640</v>
@@ -2225,7 +2231,7 @@
         <v>1620</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J37">
         <v>1720</v>
@@ -2233,13 +2239,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2256,13 +2262,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2285,13 +2291,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>姓名</t>
   </si>
@@ -118,28 +118,19 @@
     <t>高一下</t>
   </si>
   <si>
-    <t>王晓红</t>
-  </si>
-  <si>
-    <t>二中</t>
+    <t>殷万兴</t>
+  </si>
+  <si>
+    <t>彭昊</t>
+  </si>
+  <si>
+    <t>吴涛</t>
+  </si>
+  <si>
+    <t>罗焱</t>
   </si>
   <si>
     <t>高一（文科）</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>殷万兴</t>
-  </si>
-  <si>
-    <t>彭昊</t>
-  </si>
-  <si>
-    <t>吴涛</t>
-  </si>
-  <si>
-    <t>罗焱</t>
   </si>
   <si>
     <t>杨聪</t>
@@ -170,6 +161,9 @@
     <t>付小琴</t>
   </si>
   <si>
+    <t>二中</t>
+  </si>
+  <si>
     <t>小班</t>
   </si>
   <si>
@@ -201,6 +195,9 @@
   </si>
   <si>
     <t>八上</t>
+  </si>
+  <si>
+    <t>英语</t>
   </si>
   <si>
     <t>杨寒霜</t>
@@ -255,9 +252,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -281,9 +278,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,15 +307,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,30 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,46 +347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,16 +370,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,37 +436,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,43 +568,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,85 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,36 +627,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,17 +648,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,16 +705,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1281,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1681,32 +1678,32 @@
         <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E14" s="10">
-        <v>18371855184</v>
+        <v>15571865327</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10">
-        <v>13227401343</v>
+        <v>13277537771</v>
       </c>
       <c r="H14" s="9">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14">
+      <c r="J14" s="17">
         <v>640</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:10">
-      <c r="A15" s="9" t="s">
-        <v>37</v>
+      <c r="A15" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -1714,27 +1711,25 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10">
-        <v>15571865327</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10">
-        <v>13277537771</v>
-      </c>
-      <c r="H15" s="9">
-        <v>640</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="17">
-        <v>640</v>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5">
+        <v>13277558088</v>
+      </c>
+      <c r="G15" s="5">
+        <v>13277558088</v>
+      </c>
+      <c r="H15">
+        <v>1820</v>
+      </c>
+      <c r="J15">
+        <v>1820</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:10">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
@@ -1746,10 +1741,10 @@
         <v>16</v>
       </c>
       <c r="E16" s="5">
-        <v>13277558088</v>
+        <v>15671872987</v>
       </c>
       <c r="G16" s="5">
-        <v>13277558088</v>
+        <v>18727685390</v>
       </c>
       <c r="H16">
         <v>1180</v>
@@ -1760,48 +1755,48 @@
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5">
-        <v>15671872987</v>
+        <v>18972411356</v>
       </c>
       <c r="G17" s="5">
-        <v>18727685390</v>
+        <v>15335850555</v>
       </c>
       <c r="H17">
-        <v>1180</v>
+        <v>640</v>
       </c>
       <c r="J17">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:10">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>35</v>
+      <c r="C18" t="s">
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5">
-        <v>18972411356</v>
+        <v>15587535809</v>
       </c>
       <c r="G18" s="5">
-        <v>15335850555</v>
+        <v>15172808399</v>
       </c>
       <c r="H18">
         <v>640</v>
@@ -1812,7 +1807,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1824,47 +1819,48 @@
         <v>13</v>
       </c>
       <c r="E19" s="5">
-        <v>15587535809</v>
+        <v>18872817398</v>
       </c>
       <c r="G19" s="5">
-        <v>15172808399</v>
+        <v>15971708966</v>
       </c>
       <c r="H19">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="J19">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5">
-        <v>18872817398</v>
-      </c>
-      <c r="G20" s="5">
-        <v>15971708966</v>
-      </c>
-      <c r="H20">
-        <v>1180</v>
+      <c r="D20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8">
+        <v>15587656830</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8">
+        <v>13886752328</v>
+      </c>
+      <c r="H20" s="13">
+        <v>640</v>
       </c>
       <c r="J20">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:10">
-      <c r="A21" s="11" t="s">
-        <v>43</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" ht="54" spans="1:10">
+      <c r="A21" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>11</v>
@@ -1872,26 +1868,28 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8">
-        <v>15587656830</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="8">
-        <v>13886752328</v>
-      </c>
-      <c r="H21" s="13">
-        <v>640</v>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5">
+        <v>15172974901</v>
+      </c>
+      <c r="G21" s="5">
+        <v>13477210496</v>
+      </c>
+      <c r="H21">
+        <v>640</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="J21">
         <v>640</v>
       </c>
     </row>
-    <row r="22" ht="54" spans="1:10">
+    <row r="22" ht="14.25" spans="1:10">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>11</v>
@@ -1903,238 +1901,232 @@
         <v>13</v>
       </c>
       <c r="E22" s="5">
-        <v>15172974901</v>
+        <v>15227221149</v>
       </c>
       <c r="G22" s="5">
-        <v>13477210496</v>
+        <v>18872138550</v>
       </c>
       <c r="H22">
         <v>640</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="J22">
         <v>640</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:10">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" s="5">
-        <v>15227221149</v>
+        <v>13227460454</v>
       </c>
       <c r="G23" s="5">
-        <v>18872138550</v>
+        <v>15587533514</v>
       </c>
       <c r="H23">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="J23">
-        <v>640</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="5">
-        <v>13227460454</v>
+        <v>18948358045</v>
       </c>
       <c r="G24" s="5">
-        <v>15587533514</v>
+        <v>13417406231</v>
       </c>
       <c r="H24">
-        <v>1180</v>
+        <v>800</v>
       </c>
       <c r="J24">
-        <v>1180</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5">
+        <v>13032794993</v>
+      </c>
+      <c r="G25" s="5">
+        <v>15727263201</v>
+      </c>
+      <c r="H25">
+        <v>400</v>
+      </c>
+      <c r="J25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26">
+        <f>SUM(H2:H25)</f>
+        <v>23370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5">
-        <v>18948358045</v>
-      </c>
-      <c r="G25" s="5">
-        <v>13417406231</v>
-      </c>
-      <c r="H25">
-        <v>800</v>
-      </c>
-      <c r="J25">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="5">
-        <v>13032794993</v>
-      </c>
-      <c r="G26" s="5">
-        <v>15727263201</v>
-      </c>
-      <c r="H26">
-        <v>400</v>
-      </c>
-      <c r="J26">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27">
-        <f>SUM(H2:H26)</f>
-        <v>22830</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="5">
+        <v>13403088611</v>
+      </c>
+      <c r="H28">
+        <v>3080</v>
+      </c>
+      <c r="J28">
+        <v>3080</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G29" s="5">
-        <v>13403088611</v>
+        <v>18872131370</v>
       </c>
       <c r="H29">
-        <v>3080</v>
+        <v>1900</v>
       </c>
       <c r="J29">
-        <v>3080</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
       <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5">
-        <v>18872131370</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>56</v>
       </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="G31" s="5">
+        <v>15272267052</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:10">
+      <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="5">
-        <v>15272267052</v>
-      </c>
-      <c r="H32">
-        <v>1000</v>
-      </c>
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10">
+        <v>15586624958</v>
+      </c>
+      <c r="H32" s="9">
+        <v>640</v>
+      </c>
+      <c r="I32" s="9"/>
       <c r="J32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:10">
-      <c r="A33" s="9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10">
-        <v>15586624958</v>
-      </c>
-      <c r="H33" s="9">
-        <v>640</v>
-      </c>
-      <c r="I33" s="9"/>
+      <c r="G33" s="5">
+        <v>15377226688</v>
+      </c>
+      <c r="H33">
+        <v>640</v>
+      </c>
       <c r="J33">
         <v>640</v>
       </c>
@@ -2144,108 +2136,108 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G34" s="5">
-        <v>15377226688</v>
+        <v>15027236308</v>
       </c>
       <c r="H34">
-        <v>640</v>
+        <v>540</v>
       </c>
       <c r="J34">
         <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" ht="40.5" spans="1:10">
       <c r="A35" t="s">
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="5">
+        <v>13477943008</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:10">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="5">
+        <v>13277593640</v>
+      </c>
+      <c r="H36">
+        <v>1620</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="5">
-        <v>15027236308</v>
-      </c>
-      <c r="H35">
-        <v>540</v>
-      </c>
-      <c r="J35">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:10">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="5">
-        <v>13477943008</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:10">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
       <c r="G37" s="5">
-        <v>13277593640</v>
+        <v>18872818759</v>
       </c>
       <c r="H37">
-        <v>1620</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>70</v>
+        <v>640</v>
       </c>
       <c r="J37">
-        <v>1720</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2260,52 +2252,29 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
+    <row r="39" spans="8:8">
+      <c r="H39">
+        <f>SUM(H28:H38)</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="5">
-        <v>18872818759</v>
-      </c>
-      <c r="H39">
-        <v>640</v>
-      </c>
-      <c r="J39">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8">
-      <c r="H40">
-        <f>SUM(H29:H39)</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44">
+      <c r="H43">
         <v>4100</v>
       </c>
-      <c r="J44">
+      <c r="J43">
         <v>4100</v>
       </c>
     </row>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -252,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -460,6 +460,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,6 +514,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,6 +532,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,6 +580,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,49 +598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,13 +750,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,112 +768,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1376,10 +1376,10 @@
         <v>13972409178</v>
       </c>
       <c r="H3" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J3" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1988,7 +1988,7 @@
     <row r="26" spans="8:8">
       <c r="H26">
         <f>SUM(H2:H25)</f>
-        <v>23370</v>
+        <v>23470</v>
       </c>
     </row>
     <row r="27" spans="1:1">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -252,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -436,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,145 +735,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1280,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2039,7 +2039,7 @@
         <v>1900</v>
       </c>
       <c r="J29">
-        <v>1180</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2148,7 +2148,7 @@
         <v>15027236308</v>
       </c>
       <c r="H34">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="J34">
         <v>640</v>
@@ -2203,7 +2203,7 @@
         <v>69</v>
       </c>
       <c r="J36">
-        <v>1720</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2255,7 +2255,7 @@
     <row r="39" spans="8:8">
       <c r="H39">
         <f>SUM(H28:H38)</f>
-        <v>10800</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="43" spans="1:10">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -252,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -277,16 +277,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,25 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,7 +346,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,46 +398,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,21 +407,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +436,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,175 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,41 +630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,17 +650,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,6 +686,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1280,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1721,10 +1721,10 @@
         <v>13277558088</v>
       </c>
       <c r="H15">
-        <v>1820</v>
+        <v>1180</v>
       </c>
       <c r="J15">
-        <v>1820</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:10">
@@ -1988,7 +1988,7 @@
     <row r="26" spans="8:8">
       <c r="H26">
         <f>SUM(H2:H25)</f>
-        <v>23470</v>
+        <v>22830</v>
       </c>
     </row>
     <row r="27" spans="1:1">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -277,55 +277,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +292,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -345,10 +315,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,9 +345,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,31 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,6 +390,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -442,25 +442,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,150 +617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,15 +627,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,11 +645,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +693,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -701,32 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1664,7 +1664,7 @@
         <v>15171094208</v>
       </c>
       <c r="H13" s="9">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>32</v>
@@ -1988,7 +1988,7 @@
     <row r="26" spans="8:8">
       <c r="H26">
         <f>SUM(H2:H25)</f>
-        <v>22830</v>
+        <v>22840</v>
       </c>
     </row>
     <row r="27" spans="1:1">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -277,39 +277,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +301,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,53 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -436,55 +436,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,12 +574,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -557,42 +593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,21 +627,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,25 +655,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,16 +705,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1585,7 +1585,7 @@
         <v>1180</v>
       </c>
       <c r="J10">
-        <v>1820</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:10">
@@ -2036,7 +2036,7 @@
         <v>18872131370</v>
       </c>
       <c r="H29">
-        <v>1900</v>
+        <v>2180</v>
       </c>
       <c r="J29">
         <v>2180</v>
@@ -2197,13 +2197,13 @@
         <v>13277593640</v>
       </c>
       <c r="H36">
-        <v>1620</v>
+        <v>1960</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>69</v>
       </c>
       <c r="J36">
-        <v>2080</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2255,7 +2255,7 @@
     <row r="39" spans="8:8">
       <c r="H39">
         <f>SUM(H28:H38)</f>
-        <v>10900</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="43" spans="1:10">

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -252,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -284,29 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -315,39 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,14 +308,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -377,9 +315,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,16 +352,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,11 +382,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -436,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +627,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,38 +711,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,39 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,148 +735,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2272,10 +2272,10 @@
         <v>13</v>
       </c>
       <c r="H43">
-        <v>4100</v>
+        <v>8100</v>
       </c>
       <c r="J43">
-        <v>4100</v>
+        <v>8100</v>
       </c>
     </row>
   </sheetData>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>姓名</t>
   </si>
@@ -75,6 +75,9 @@
     <t>姚老师</t>
   </si>
   <si>
+    <t>退440</t>
+  </si>
+  <si>
     <t>张永</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
     <t>刘老师</t>
   </si>
   <si>
-    <t>退440</t>
-  </si>
-  <si>
     <t>张欢</t>
   </si>
   <si>
@@ -105,17 +105,10 @@
     <t>田淼屹</t>
   </si>
   <si>
-    <t>高一下，
-五中年级第二名</t>
-  </si>
-  <si>
     <t>牟月</t>
   </si>
   <si>
     <t>吴袁杰</t>
-  </si>
-  <si>
-    <t>高一下</t>
   </si>
   <si>
     <t>殷万兴</t>
@@ -292,8 +285,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +332,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -315,24 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,19 +369,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,15 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,34 +414,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -436,25 +429,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,157 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,26 +623,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,6 +664,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -679,16 +683,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,17 +720,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,13 +743,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,118 +758,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,7 +1274,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1407,13 +1400,16 @@
       <c r="H4">
         <v>2060</v>
       </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
       <c r="J4">
-        <v>2060</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -1422,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5">
         <v>18327434602</v>
@@ -1442,7 +1438,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1471,7 +1467,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1486,7 +1482,7 @@
         <v>15071863980</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5">
         <v>18071928889</v>
@@ -1495,10 +1491,10 @@
         <v>1620</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J7" s="15">
-        <v>1820</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1518,7 +1514,7 @@
         <v>15071844522</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5">
         <v>13646181872</v>
@@ -1547,7 +1543,7 @@
         <v>13477914332</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5">
         <v>18872803898</v>
@@ -1576,7 +1572,7 @@
         <v>15172847531</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5">
         <v>18671142667</v>
@@ -1588,7 +1584,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="11" ht="40.5" spans="1:10">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1610,16 +1606,14 @@
       <c r="H11">
         <v>640</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="I11" s="16"/>
       <c r="J11">
         <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1645,7 +1639,7 @@
     </row>
     <row r="13" ht="14.25" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -1666,16 +1660,14 @@
       <c r="H13" s="9">
         <v>640</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="I13" s="9"/>
       <c r="J13">
         <v>640</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>11</v>
@@ -1703,7 +1695,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:10">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -1729,7 +1721,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:10">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
@@ -1755,13 +1747,13 @@
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1781,7 +1773,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1807,7 +1799,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1833,7 +1825,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:10">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>11</v>
@@ -1842,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="8">
         <v>15587656830</v>
@@ -1860,7 +1852,7 @@
     </row>
     <row r="21" ht="54" spans="1:10">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>11</v>
@@ -1881,7 +1873,7 @@
         <v>640</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J21">
         <v>640</v>
@@ -1889,7 +1881,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:10">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>11</v>
@@ -1915,7 +1907,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1941,7 +1933,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1961,13 +1953,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1993,21 +1985,21 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" s="5">
         <v>13403088611</v>
@@ -2021,13 +2013,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -2044,10 +2036,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2061,16 +2053,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
       </c>
       <c r="G31" s="5">
         <v>15272267052</v>
@@ -2084,16 +2076,16 @@
     </row>
     <row r="32" ht="14.25" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2110,16 +2102,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="5">
         <v>15377226688</v>
@@ -2133,13 +2125,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2156,16 +2148,16 @@
     </row>
     <row r="35" ht="40.5" spans="1:10">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="5">
         <v>13477943008</v>
@@ -2174,7 +2166,7 @@
         <v>100</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -2182,16 +2174,16 @@
     </row>
     <row r="36" ht="27" spans="1:10">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
         <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" s="5">
         <v>13277593640</v>
@@ -2200,7 +2192,7 @@
         <v>1960</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J36">
         <v>1980</v>
@@ -2208,13 +2200,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2231,13 +2223,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2260,13 +2252,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -75,22 +75,22 @@
     <t>姚老师</t>
   </si>
   <si>
+    <t>张永</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>牟森</t>
+  </si>
+  <si>
+    <t>李林欣</t>
+  </si>
+  <si>
+    <t>刘老师</t>
+  </si>
+  <si>
     <t>退440</t>
-  </si>
-  <si>
-    <t>张永</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>牟森</t>
-  </si>
-  <si>
-    <t>李林欣</t>
-  </si>
-  <si>
-    <t>刘老师</t>
   </si>
   <si>
     <t>张欢</t>
@@ -277,9 +277,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,23 +322,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +339,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +378,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -339,17 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,58 +415,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -429,19 +429,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,163 +591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,30 +620,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -662,26 +638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -693,6 +649,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,8 +686,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,130 +743,130 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1273,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1398,18 +1398,16 @@
         <v>13958684076</v>
       </c>
       <c r="H4">
-        <v>2060</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
+        <v>1620</v>
+      </c>
+      <c r="I4"/>
       <c r="J4">
         <v>1620</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -1418,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
         <v>18327434602</v>
@@ -1438,7 +1436,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1467,7 +1465,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1482,7 +1480,7 @@
         <v>15071863980</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5">
         <v>18071928889</v>
@@ -1491,7 +1489,7 @@
         <v>1620</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J7" s="15">
         <v>1180</v>
@@ -1514,7 +1512,7 @@
         <v>15071844522</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5">
         <v>13646181872</v>
@@ -1543,7 +1541,7 @@
         <v>13477914332</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5">
         <v>18872803898</v>
@@ -1572,7 +1570,7 @@
         <v>15172847531</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5">
         <v>18671142667</v>
@@ -1834,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="8">
         <v>15587656830</v>
@@ -1980,7 +1978,7 @@
     <row r="26" spans="8:8">
       <c r="H26">
         <f>SUM(H2:H25)</f>
-        <v>22840</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -2085,7 +2083,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2111,7 +2109,7 @@
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" s="5">
         <v>15377226688</v>
@@ -2157,7 +2155,7 @@
         <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="5">
         <v>13477943008</v>

--- a/华晨培训第三期报名册.xlsx
+++ b/华晨培训第三期报名册.xlsx
@@ -245,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -277,85 +277,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +309,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -378,13 +355,44 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -392,9 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,13 +415,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -435,12 +435,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,25 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,127 +591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,51 +620,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,20 +647,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,6 +687,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,145 +728,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1273,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1400,7 +1400,6 @@
       <c r="H4">
         <v>1620</v>
       </c>
-      <c r="I4"/>
       <c r="J4">
         <v>1620</v>
       </c>
@@ -2262,10 +2261,10 @@
         <v>13</v>
       </c>
       <c r="H43">
-        <v>8100</v>
+        <v>11700</v>
       </c>
       <c r="J43">
-        <v>8100</v>
+        <v>11700</v>
       </c>
     </row>
   </sheetData>
